--- a/medicine/Mort/Cimetière_de_Robermont/Cimetière_de_Robermont.xlsx
+++ b/medicine/Mort/Cimetière_de_Robermont/Cimetière_de_Robermont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Robermont</t>
+          <t>Cimetière_de_Robermont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Robermont a été créé le 21 mai 1805, sur décision du conseil municipal de Liège, dans les jardins de l'ancienne abbaye de Robermont[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Robermont a été créé le 21 mai 1805, sur décision du conseil municipal de Liège, dans les jardins de l'ancienne abbaye de Robermont.
 Avec plus de 40 hectares, il est le premier cimetière en importance de la ville de Liège.
 Il est situé au numéro 46 de la rue de Herve.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Robermont</t>
+          <t>Cimetière_de_Robermont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est décidé en 1783, pour des raisons sanitaires, de ne plus inhumer à l'intérieur de la cité.  En 1805, les quarante à cinquante charniers de Liège sont fermés et on ne peut plus enterrer que dans trois cimetières situés en dehors de la ville : le cimetière de Hocheporte, attenant à la paroisse Saint-Séverin (Sainte-Marguerite); le cimetière des Bayards (Saint-Léonard) et Robermont. Le cimetière des Bayards est fermé en 1816 et celui de Hocheporte en 1821[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est décidé en 1783, pour des raisons sanitaires, de ne plus inhumer à l'intérieur de la cité.  En 1805, les quarante à cinquante charniers de Liège sont fermés et on ne peut plus enterrer que dans trois cimetières situés en dehors de la ville : le cimetière de Hocheporte, attenant à la paroisse Saint-Séverin (Sainte-Marguerite); le cimetière des Bayards (Saint-Léonard) et Robermont. Le cimetière des Bayards est fermé en 1816 et celui de Hocheporte en 1821.
 En 1874, un second grand cimetière (20 hectares) est créé de l'autre côté de la vallée : le cimetière de Sainte-Walburge.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Robermont</t>
+          <t>Cimetière_de_Robermont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnages connus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Victor Bertrand (1857-1931), lieutenant général pendant la Première Guerre mondiale.
 Lucien Brouha (1899–1968), rameur et physiologiste de l'exercice.
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Robermont</t>
+          <t>Cimetière_de_Robermont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t xml:space="preserve">Pelouse d'honneur </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ICI DORMENT CEUXQUI DONNERENT LEUR VIE POUR NOTRE INDEPENDANCEPASSANTRESPECTE LEUR SOMMEIL</t>
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Robermont</t>
+          <t>Cimetière_de_Robermont</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,7 +652,9 @@
           <t>Monuments remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De nombreuses tombes sont d'authentiques créations architecturales, nous en donnons ici les exemples les plus intéressants.
 Tombe d'Étienne Soubre (1813-1871), compositeur et de son frère Charles Soubre (1821-1895), peintre et professeur à l'Académie des Beaux-Arts de Liège, parcelle ...
@@ -659,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Robermont</t>
+          <t>Cimetière_de_Robermont</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,7 +697,9 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'épisode Le Pendu de Saint-Pholien (1981) des Enquêtes du commissaire Maigret réalisé par Yves Allégret d'après le roman éponyme de l'écrivain liégeois Georges Simenon, le cimetière de Robermont est évoqué alors même que le lieu de l'action a été déplacé de Liège à Lille.
 </t>
